--- a/data_kelas.xlsx
+++ b/data_kelas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Data Kelas</t>
   </si>
@@ -35,16 +35,10 @@
     <t>Id Prodi</t>
   </si>
   <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>TI-3c</t>
-  </si>
-  <si>
-    <t>TI-2C</t>
-  </si>
-  <si>
-    <t>3f</t>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>D3 Teknik Elektro</t>
   </si>
 </sst>
 </file>
@@ -384,7 +378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,67 +413,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2013</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2016</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>2020</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
